--- a/data/compare_LayerPercentage_stationary.xlsx
+++ b/data/compare_LayerPercentage_stationary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>層</t>
     <rPh sb="0" eb="1">
@@ -78,11 +78,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Move(200[mm/s])</t>
+    <t>Move - 200[mm/s]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Move(300[mm/s])</t>
+    <t>Move - 300[mm/s]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -145,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -332,45 +332,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -487,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,15 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +494,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,37 +527,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,6 +557,1088 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>層別粒子数</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$20:$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Stationary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Move - 200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Move - 300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$20:$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Stationary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Move - 200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Move - 300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$22:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$20:$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Stationary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Move - 200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Move - 300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$20:$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Stationary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Move - 200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Move - 300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$20:$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Stationary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Move - 200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Move - 300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33510</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+        <c:axId val="424657488"/>
+        <c:axId val="416271328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424657488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416271328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416271328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424657488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,7 +1907,7 @@
   <dimension ref="A4:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:F26"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,28 +1929,28 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="K6" s="11" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="K6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -918,22 +1958,22 @@
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="23" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="9">
         <v>5</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="13"/>
       <c r="K7">
         <f t="shared" ref="K7:M11" si="0" xml:space="preserve"> D8 / 500000 *100</f>
         <v>7.2468000000000004</v>
@@ -948,13 +1988,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="2">
         <v>36234</v>
       </c>
@@ -964,7 +2004,7 @@
       <c r="F8" s="2">
         <v>31892</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="5">
         <v>4</v>
       </c>
@@ -983,11 +2023,11 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="2">
         <v>32809</v>
       </c>
@@ -997,7 +2037,7 @@
       <c r="F9" s="2">
         <v>32134</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="5">
         <v>3</v>
       </c>
@@ -1016,11 +2056,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="2">
         <v>30205</v>
       </c>
@@ -1030,7 +2070,7 @@
       <c r="F10" s="2">
         <v>30653</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="5">
         <v>2</v>
       </c>
@@ -1049,11 +2089,11 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="2">
         <v>24198</v>
       </c>
@@ -1063,11 +2103,11 @@
       <c r="F11" s="2">
         <v>26392</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="14"/>
       <c r="K11">
         <f t="shared" si="0"/>
         <v>4.2316000000000003</v>
@@ -1082,11 +2122,11 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2">
         <v>21158</v>
       </c>
@@ -1099,60 +2139,82 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <f>SUM(D8:D12)</f>
         <v>144604</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <f t="shared" ref="E14" si="1">SUM(E8:E12)</f>
         <v>144739</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="12">
         <f>SUM(F8:F12)</f>
         <v>145045</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="21" t="s">
+    <row r="20" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="K20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="22" t="s">
         <v>8</v>
       </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="2">
+        <v>21158</v>
+      </c>
+      <c r="L21" s="2">
+        <v>22542</v>
+      </c>
+      <c r="M21" s="2">
+        <v>23974</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="9">
         <v>5</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="13"/>
       <c r="D22">
         <f t="shared" ref="D22:F26" si="2" xml:space="preserve"> D8 / D$14 * 100</f>
         <v>25.057398135597907</v>
@@ -1165,9 +2227,22 @@
         <f xml:space="preserve"> F8 / F$14 * 100</f>
         <v>21.987659002378575</v>
       </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="2">
+        <v>24198</v>
+      </c>
+      <c r="L22" s="2">
+        <v>25159</v>
+      </c>
+      <c r="M22" s="2">
+        <v>26392</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
       <c r="B23" s="5">
         <v>4</v>
       </c>
@@ -1184,9 +2259,22 @@
         <f t="shared" si="2"/>
         <v>22.15450377469061</v>
       </c>
+      <c r="I23" s="5">
+        <v>3</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="2">
+        <v>30205</v>
+      </c>
+      <c r="L23" s="2">
+        <v>30313</v>
+      </c>
+      <c r="M23" s="2">
+        <v>30653</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
       <c r="B24" s="5">
         <v>3</v>
       </c>
@@ -1203,9 +2291,22 @@
         <f t="shared" si="2"/>
         <v>21.13344134578924</v>
       </c>
+      <c r="I24" s="5">
+        <v>4</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="2">
+        <v>32809</v>
+      </c>
+      <c r="L24" s="2">
+        <v>33215</v>
+      </c>
+      <c r="M24" s="2">
+        <v>32134</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
       <c r="B25" s="5">
         <v>2</v>
       </c>
@@ -1222,13 +2323,26 @@
         <f t="shared" si="2"/>
         <v>18.195732358923092</v>
       </c>
+      <c r="I25" s="10">
+        <v>5</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="2">
+        <v>36234</v>
+      </c>
+      <c r="L25" s="2">
+        <v>33510</v>
+      </c>
+      <c r="M25" s="2">
+        <v>31892</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
+    <row r="26" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
       <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="14"/>
       <c r="D26">
         <f t="shared" si="2"/>
         <v>14.631683770850046</v>
@@ -1243,6 +2357,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="I21:M25">
+    <sortCondition ref="I21"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="D20:F20"/>
@@ -1254,5 +2371,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>